--- a/data/order_log.xlsx
+++ b/data/order_log.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -430,9 +430,485 @@
         <v>Purchased</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-06-16T08:07:15.318Z</v>
+      </c>
+      <c r="B3" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C3" t="str">
+        <v>687</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-06-16T08:12:13.734Z</v>
+      </c>
+      <c r="B4" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C4" t="str">
+        <v>687</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-06-16T08:14:23.922Z</v>
+      </c>
+      <c r="B5" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C5" t="str">
+        <v>687</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-06-16T08:14:41.987Z</v>
+      </c>
+      <c r="B6" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-06-16T08:49:16.417Z</v>
+      </c>
+      <c r="B7" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C7" t="str">
+        <v>687</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-06-16T08:49:33.220Z</v>
+      </c>
+      <c r="B8" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-06-16T08:50:29.008Z</v>
+      </c>
+      <c r="B9" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C9" t="str">
+        <v>687</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-06-16T08:50:48.223Z</v>
+      </c>
+      <c r="B10" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-06-16T09:00:58.463Z</v>
+      </c>
+      <c r="B11" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C11" t="str">
+        <v>687</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-06-16T09:01:15.539Z</v>
+      </c>
+      <c r="B12" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-06-16T09:01:33.753Z</v>
+      </c>
+      <c r="B13" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-06-16T09:04:27.651Z</v>
+      </c>
+      <c r="B14" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C14" t="str">
+        <v>687</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-06-16T09:04:39.493Z</v>
+      </c>
+      <c r="B15" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-06-16T09:10:03.817Z</v>
+      </c>
+      <c r="B16" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C16" t="str">
+        <v>687</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-06-16T09:10:20.427Z</v>
+      </c>
+      <c r="B17" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-06-16T09:10:36.859Z</v>
+      </c>
+      <c r="B18" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-06-16T09:11:18.589Z</v>
+      </c>
+      <c r="B19" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C19" t="str">
+        <v>687</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-06-16T09:11:34.651Z</v>
+      </c>
+      <c r="B20" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-06-16T09:11:51.247Z</v>
+      </c>
+      <c r="B21" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-06-16T09:13:57.803Z</v>
+      </c>
+      <c r="B22" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C22" t="str">
+        <v>687</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-06-16T09:14:15.706Z</v>
+      </c>
+      <c r="B23" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-06-16T09:14:26.585Z</v>
+      </c>
+      <c r="B24" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-06-16T09:29:34.419Z</v>
+      </c>
+      <c r="B25" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C25" t="str">
+        <v>687</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-06-16T09:29:50.011Z</v>
+      </c>
+      <c r="B26" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-06-16T09:30:35.312Z</v>
+      </c>
+      <c r="B27" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-06-16T09:33:16.369Z</v>
+      </c>
+      <c r="B28" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C28" t="str">
+        <v>687</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-06-16T09:33:45.150Z</v>
+      </c>
+      <c r="B29" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-06-16T09:35:17.238Z</v>
+      </c>
+      <c r="B30" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-06-17T03:56:36.904Z</v>
+      </c>
+      <c r="B31" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C31" t="str">
+        <v>687</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-06-17T03:56:54.563Z</v>
+      </c>
+      <c r="B32" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-06-17T03:57:27.509Z</v>
+      </c>
+      <c r="B33" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-06-17T04:08:53.928Z</v>
+      </c>
+      <c r="B34" t="str">
+        <v>持続型ビオチン 60粒入（60日分）</v>
+      </c>
+      <c r="C34" t="str">
+        <v>687</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-06-17T04:09:10.194Z</v>
+      </c>
+      <c r="B35" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-06-17T04:09:45.867Z</v>
+      </c>
+      <c r="B36" t="str">
+        <v>マンナンヒカリ 業務用 1kg</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1,730</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/order_log.xlsx
+++ b/data/order_log.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -906,9 +906,149 @@
         <v>Purchased</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-06-22T17:04:02.394Z</v>
+      </c>
+      <c r="B37" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-06-22T17:06:44.063Z</v>
+      </c>
+      <c r="B38" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-06-22T17:10:34.959Z</v>
+      </c>
+      <c r="B39" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-06-22T17:11:54.849Z</v>
+      </c>
+      <c r="B40" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2025-06-22T17:13:14.948Z</v>
+      </c>
+      <c r="B41" t="str">
+        <v>コカコーラ コカコーラ社製品 選べる2ケースセット 500mlペットボトル×48(24×2)本入(一部、410ml～560mlPETを含む) メーカー直送｜全国送料無料 いろはす コーラゼロ アクエリアス ファンタ 爽健美茶</v>
+      </c>
+      <c r="C41" t="str">
+        <v>4,608</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2025-06-22T17:14:26.246Z</v>
+      </c>
+      <c r="B42" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2025-06-22T17:18:48.621Z</v>
+      </c>
+      <c r="B43" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2025-06-22T17:19:03.396Z</v>
+      </c>
+      <c r="B44" t="str">
+        <v>コカコーラ コカコーラ社製品 選べる2ケースセット 500mlペットボトル×48(24×2)本入(一部、410ml～560mlPETを含む) メーカー直送｜全国送料無料 いろはす コーラゼロ アクエリアス ファンタ 爽健美茶</v>
+      </c>
+      <c r="C44" t="str">
+        <v>4,608</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2025-06-22T17:25:53.902Z</v>
+      </c>
+      <c r="B45" t="str">
+        <v>コカコーラ い・ろ・は・す(いろはす I LOHAS) 2Lペットボトル×6本入 メーカー直送｜全国送料無料 いろはす ミネラルウォーター 2l 水 コーラ</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1,698</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2025-06-22T17:26:10.002Z</v>
+      </c>
+      <c r="B46" t="str">
+        <v>コカコーラ コカコーラ社製品 選べる2ケースセット 500mlペットボトル×48(24×2)本入(一部、410ml～560mlPETを含む) メーカー直送｜全国送料無料 いろはす コーラゼロ アクエリアス ファンタ 爽健美茶</v>
+      </c>
+      <c r="C46" t="str">
+        <v>4,608</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Purchased</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D46"/>
   </ignoredErrors>
 </worksheet>
 </file>